--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5163FE-A3A5-43AE-833A-69BBCFFDD83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A659B70-9F56-4AE2-9696-511384B78FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Implementierung initiale Javascript-Applikation</t>
+  </si>
+  <si>
+    <t>Entwicklung abstraktes Sequenzdiagramm zur Client-Server-Kommunikation</t>
+  </si>
+  <si>
+    <t>Absprache mit Sebastian Ederer bezüglich Systemarchitektur und UI-Mockup</t>
   </si>
 </sst>
 </file>
@@ -131,13 +137,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -455,7 +461,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,22 +473,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -527,7 +533,7 @@
       <c r="A6" s="4">
         <v>44133</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>3.5</v>
       </c>
       <c r="C6">
@@ -569,165 +575,183 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44147</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>13.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44150</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A659B70-9F56-4AE2-9696-511384B78FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3A165-6015-466D-AE9D-02CB2AE9C452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Absprache mit Sebastian Ederer bezüglich Systemarchitektur und UI-Mockup</t>
+  </si>
+  <si>
+    <t>Implementierung bidirektionale Kommunikation zwischen Client und Server, Evaluation von libsigrok</t>
+  </si>
+  <si>
+    <t>Diskussion UI-Mockup</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,153 +611,171 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>18.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44156</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3A165-6015-466D-AE9D-02CB2AE9C452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9F349-8C1C-4D2B-B3B8-A4C2922618A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Diskussion UI-Mockup</t>
+  </si>
+  <si>
+    <t>Wöchentliches Meeting</t>
+  </si>
+  <si>
+    <t>Integration der Datenakquirierung aus analogem Pin in Client-Server-Applikation</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,141 +647,159 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44159</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>20.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9F349-8C1C-4D2B-B3B8-A4C2922618A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5733A2-1AC9-4766-A86B-38D297CF5171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Integration der Datenakquirierung aus analogem Pin in Client-Server-Applikation</t>
+  </si>
+  <si>
+    <t>Debugging der Instrumentierung von libsigrokdecode</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,129 +680,138 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5733A2-1AC9-4766-A86B-38D297CF5171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C0EA0-5FBA-4740-A8D6-CEC750A8DE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>Integration der Datenakquirierung aus analogem Pin in Client-Server-Applikation</t>
   </si>
   <si>
-    <t>Debugging der Instrumentierung von libsigrokdecode</t>
+    <t>Debugging der Instrumentierung von libsigrokdecode, recherche RedPitaya streaming server applikation</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,11 +684,11 @@
         <v>44165</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -697,121 +697,121 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C0EA0-5FBA-4740-A8D6-CEC750A8DE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD447121-A341-4116-9D3E-34A337D54ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Debugging der Instrumentierung von libsigrokdecode, recherche RedPitaya streaming server applikation</t>
+  </si>
+  <si>
+    <t>Implementierung Datenakquirierung</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,123 +698,132 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD447121-A341-4116-9D3E-34A337D54ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60719F55-8D70-4E58-9564-554D512D2375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-25140" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Diskussion UI-Mockup</t>
   </si>
   <si>
-    <t>Wöchentliches Meeting</t>
-  </si>
-  <si>
     <t>Integration der Datenakquirierung aus analogem Pin in Client-Server-Applikation</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Implementierung Datenakquirierung</t>
+  </si>
+  <si>
+    <t>Ausleihe der Boards</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
         <v>20.5</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>25.5</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>28.5</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,121 +709,139 @@
         <v>34.5</v>
       </c>
       <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44173</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60719F55-8D70-4E58-9564-554D512D2375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8A17CF-7283-4271-BC18-215DB1E280AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25140" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Ausleihe der Boards</t>
+  </si>
+  <si>
+    <t>Upgrade des OS und Debugging der Datenakquirierung</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,105 +746,114 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44182</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8A17CF-7283-4271-BC18-215DB1E280AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035863D2-25EB-4907-B9A4-0E31BB52797E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,99 +761,108 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44183</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035863D2-25EB-4907-B9A4-0E31BB52797E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D6C07-44A7-445A-8745-4BBBF3EFA61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Upgrade des OS und Debugging der Datenakquirierung</t>
+  </si>
+  <si>
+    <t>Debugging der Datenakquise, Implementierung eines Webinterfaces zur Demonstration der Datenakquise</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,93 +779,102 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44167</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D6C07-44A7-445A-8745-4BBBF3EFA61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4041523-A21B-4221-81F5-B8756A79A1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Debugging der Datenakquise, Implementierung eines Webinterfaces zur Demonstration der Datenakquise</t>
+  </si>
+  <si>
+    <t>Akquirierung der Testdaten für UART-Test, forum-post geschrieben</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,101 +783,119 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>44167</v>
+        <v>44187</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43832</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
+      <c r="C22">
+        <f>C20+B22</f>
         <v>49.5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
-      </c>
-    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>43844</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f>C22+B23</f>
+        <v>54.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" ref="C24:C35" si="1">C23+B24</f>
+        <v>54.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4041523-A21B-4221-81F5-B8756A79A1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B615B7-2A55-4599-B3C3-2F5E1486F1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Akquirierung der Testdaten für UART-Test, forum-post geschrieben</t>
+  </si>
+  <si>
+    <t>Wöchentliches Meeting + Vorbereitung</t>
+  </si>
+  <si>
+    <t>Einrichtung Teamviewer + Klassendesignmeeting</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C35" si="0">C6+B7</f>
+        <f t="shared" ref="C7:C21" si="0">C6+B7</f>
         <v>9.5</v>
       </c>
       <c r="D7" t="s">
@@ -827,75 +833,93 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43849</v>
+      </c>
+      <c r="B24">
+        <v>1.5</v>
+      </c>
       <c r="C24">
         <f t="shared" ref="C24:C35" si="1">C23+B24</f>
-        <v>54.5</v>
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>43851</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B615B7-2A55-4599-B3C3-2F5E1486F1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72118003-E30C-4FDF-878A-415462905170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Einrichtung Teamviewer + Klassendesignmeeting</t>
+  </si>
+  <si>
+    <t>Designmeeting + Einführung in Vue durch Sebastian</t>
   </si>
 </sst>
 </file>
@@ -493,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,63 +866,72 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43858</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung Datenupdate über websocket in webUI. Dazu stub für den redpitaya in Node implementiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung UI-Logik: Senden ausgewählter decoder an RP, zurücksenden benötigter Parameter</t>
   </si>
 </sst>
 </file>
@@ -251,10 +254,10 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -650,51 +653,60 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung UI-Logik: Senden ausgewählter decoder an RP, zurücksenden benötigter Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung Generierung der Parameter-UI-Elemente</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,11 +645,11 @@
         <v>44244</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>25</v>
@@ -661,52 +664,61 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>44247</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung Generierung der Parameter-UI-Elemente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung UI-Logik für die Decoder-Channel-Auswahl</t>
   </si>
 </sst>
 </file>
@@ -256,8 +259,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,39 +689,48 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>44248</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung UI-Logik für die Decoder-Channel-Auswahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging mit Henneke und Schneider zum Deployment der C++-Applikation auf dem RedPitaya</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -704,33 +707,42 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>44251</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">Debugging mit Henneke und Schneider zum Deployment der C++-Applikation auf dem RedPitaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging mit Henneke bezüglich Senden der Decoderliste vom RedPitaya zum Client</t>
   </si>
 </sst>
 </file>
@@ -260,10 +263,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,27 +725,78 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>44254</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>106</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <f aca="false">C35+B36</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">C36+B37</f>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Debugging mit Henneke bezüglich Senden der Decoderliste vom RedPitaya zum Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche BeagleLogic als alternatives Board für nächste Gruppe, Implementierung UI-Logik für AcquirerParameter</t>
   </si>
 </sst>
 </file>
@@ -750,6 +753,9 @@
         <f aca="false">C32+B33</f>
         <v>122</v>
       </c>
+      <c r="D33" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="n">

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Recherche BeagleLogic als alternatives Board für nächste Gruppe, Implementierung UI-Logik für AcquirerParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung UI-Logik, Meeting bzgl Abgabe</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -767,6 +770,9 @@
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
         <v>130</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung UI-Logik, Meeting bzgl Abgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schreiben von Dokumentation und Präsentation</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -785,6 +788,9 @@
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
         <v>138</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -274,8 +274,8 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,14 +795,17 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
-        <v>44230</v>
+        <v>44256</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,7 +817,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">Schreiben von Dokumentation und Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufnahme Video, Verwaltung der Dateien für die Abgabe</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -810,14 +813,17 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aufnahme Video, Verwaltung der Dateien für die Abgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Videoschnitt mit Sebastian</t>
   </si>
 </sst>
 </file>
@@ -275,10 +278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,6 +827,21 @@
       </c>
       <c r="D37" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>44258</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">C37+B38</f>
+        <v>150</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -44,91 +44,7 @@
     <t xml:space="preserve">Unterschrift</t>
   </si>
   <si>
-    <t xml:space="preserve">Zweiwöchentliches Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbetriebnahme RedPitaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung initiale Javascript-Applikation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entwicklung abstraktes Sequenzdiagramm zur Client-Server-Kommunikation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absprache mit Sebastian Ederer bezüglich Systemarchitektur und UI-Mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung bidirektionale Kommunikation zwischen Client und Server, Evaluation von libsigrok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diskussion UI-Mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration der Datenakquirierung aus analogem Pin in Client-Server-Applikation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debugging der Instrumentierung von libsigrokdecode, recherche RedPitaya streaming server applikation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung Datenakquirierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausleihe der Boards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade des OS und Debugging der Datenakquirierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debugging der Datenakquise, Implementierung eines Webinterfaces zur Demonstration der Datenakquise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akquirierung der Testdaten für UART-Test, forum-post geschrieben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wöchentliches Meeting + Vorbereitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einrichtung Teamviewer + Klassendesignmeeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designmeeting + Einführung in Vue durch Sebastian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung Datenupdate über websocket in webUI. Dazu stub für den redpitaya in Node implementiert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung UI-Logik: Senden ausgewählter decoder an RP, zurücksenden benötigter Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung Generierung der Parameter-UI-Elemente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung UI-Logik für die Decoder-Channel-Auswahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debugging mit Henneke und Schneider zum Deployment der C++-Applikation auf dem RedPitaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debugging mit Henneke bezüglich Senden der Decoderliste vom RedPitaya zum Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche BeagleLogic als alternatives Board für nächste Gruppe, Implementierung UI-Logik für AcquirerParameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung UI-Logik, Meeting bzgl Abgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schreiben von Dokumentation und Präsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufnahme Video, Verwaltung der Dateien für die Abgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Videoschnitt mit Sebastian</t>
+    <t xml:space="preserve">Migration des Projektes auf Typescript</t>
   </si>
 </sst>
 </file>
@@ -280,8 +196,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,22 +250,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
-        <v>44131</v>
+        <v>44275</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">B5</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>44133</v>
       </c>
@@ -358,13 +274,10 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">C5+B6</f>
-        <v>4.5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>44140</v>
       </c>
@@ -373,13 +286,10 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">C6+B7</f>
-        <v>9.5</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>44145</v>
       </c>
@@ -388,13 +298,10 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">C7+B8</f>
-        <v>10.5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>44147</v>
       </c>
@@ -403,13 +310,10 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">C8+B9</f>
-        <v>13.5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>44150</v>
       </c>
@@ -418,13 +322,10 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">C9+B10</f>
-        <v>14.5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>44154</v>
       </c>
@@ -433,13 +334,10 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">C10+B11</f>
-        <v>18.5</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>44156</v>
       </c>
@@ -448,13 +346,10 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">C11+B12</f>
-        <v>19.5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>44159</v>
       </c>
@@ -463,13 +358,10 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">C12+B13</f>
-        <v>20.5</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>44161</v>
       </c>
@@ -478,13 +370,10 @@
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">C13+B14</f>
-        <v>25.5</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>44165</v>
       </c>
@@ -493,13 +382,10 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">C14+B15</f>
-        <v>28.5</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>44168</v>
       </c>
@@ -508,13 +394,10 @@
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">C15+B16</f>
-        <v>34.5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>44173</v>
       </c>
@@ -523,13 +406,10 @@
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">C16+B17</f>
-        <v>35.5</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>44177</v>
       </c>
@@ -538,13 +418,10 @@
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">C17+B18</f>
-        <v>37.5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>44182</v>
       </c>
@@ -553,13 +430,10 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">C18+B19</f>
-        <v>42.5</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>44183</v>
       </c>
@@ -568,13 +442,10 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>44.5</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>44187</v>
       </c>
@@ -583,13 +454,10 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>45.5</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>44198</v>
       </c>
@@ -598,13 +466,10 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">C20+B22</f>
-        <v>49.5</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>44210</v>
       </c>
@@ -613,13 +478,10 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>54.5</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>44215</v>
       </c>
@@ -628,13 +490,10 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>56</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>44217</v>
       </c>
@@ -643,13 +502,10 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>62</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>44224</v>
       </c>
@@ -658,13 +514,10 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>67</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>44244</v>
       </c>
@@ -673,13 +526,10 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>74</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>44245</v>
       </c>
@@ -688,13 +538,10 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>82</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>44247</v>
       </c>
@@ -703,13 +550,10 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>90</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>44248</v>
       </c>
@@ -718,13 +562,10 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>98</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>44251</v>
       </c>
@@ -733,13 +574,10 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>106</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>44252</v>
       </c>
@@ -748,13 +586,10 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>114</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="n">
         <v>44253</v>
       </c>
@@ -763,13 +598,10 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>122</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="n">
         <v>44254</v>
       </c>
@@ -778,10 +610,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>130</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,10 +622,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>138</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,10 +634,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>141</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,10 +646,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>146</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,10 +658,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>150</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -197,7 +197,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,396 +269,298 @@
       <c r="A6" s="6" t="n">
         <v>44133</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="0" t="n">
         <f aca="false">C5+B6</f>
-        <v>6.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>44140</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C7" s="0" t="n">
         <f aca="false">C6+B7</f>
-        <v>11.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>44145</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="C8" s="0" t="n">
         <f aca="false">C7+B8</f>
-        <v>12.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>44147</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="C9" s="0" t="n">
         <f aca="false">C8+B9</f>
-        <v>15.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>44150</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="C10" s="0" t="n">
         <f aca="false">C9+B10</f>
-        <v>16.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>44154</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="C11" s="0" t="n">
         <f aca="false">C10+B11</f>
-        <v>20.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>44156</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="C12" s="0" t="n">
         <f aca="false">C11+B12</f>
-        <v>21.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>44159</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="C13" s="0" t="n">
         <f aca="false">C12+B13</f>
-        <v>22.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>44161</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C14" s="0" t="n">
         <f aca="false">C13+B14</f>
-        <v>27.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>44165</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="C15" s="0" t="n">
         <f aca="false">C14+B15</f>
-        <v>30.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>44168</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="C16" s="0" t="n">
         <f aca="false">C15+B16</f>
-        <v>36.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>44173</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="C17" s="0" t="n">
         <f aca="false">C16+B17</f>
-        <v>37.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>44177</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="C18" s="0" t="n">
         <f aca="false">C17+B18</f>
-        <v>39.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>44182</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C19" s="0" t="n">
         <f aca="false">C18+B19</f>
-        <v>44.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>44183</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>46.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>44187</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>47.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>44198</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C22" s="0" t="n">
         <f aca="false">C20+B22</f>
-        <v>51.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>44210</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>56.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>44215</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1.5</v>
-      </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>44217</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>44224</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>44244</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>44245</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>84</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>44247</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>44248</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>44251</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>44252</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="n">
         <v>44253</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>124</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="n">
         <v>44254</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="n">
         <v>44255</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
         <v>44256</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>143</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
         <v>44230</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
         <v>44258</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>152</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E4B51B-6557-4538-A1D5-EF53BB60B8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE415A2-C54E-4B98-BB48-6BA395A1F382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>Migration des Projektes auf Typescript</t>
   </si>
   <si>
-    <t>Refactoring von redpitaya_stub.ts</t>
+    <t>Explizite Definition des Models auf JS-Seite, refactoring von redpitaya_stub.ts</t>
   </si>
 </sst>
 </file>
@@ -119,12 +119,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -137,6 +131,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,49 +466,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>44275</v>
       </c>
       <c r="B5">
@@ -523,306 +523,306 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>44133</v>
       </c>
-      <c r="B6" s="7">
-        <v>2</v>
+      <c r="B6" s="5">
+        <v>3</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C21" si="0">C5+B6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>44140</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>44145</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>44147</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>44150</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>44154</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>44156</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>44159</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>44161</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>44165</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>44168</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>44173</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>44177</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>44182</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>44183</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>44187</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>44198</v>
       </c>
       <c r="C22">
         <f>C20+B22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>44210</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C38" si="1">C22+B23</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>44215</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>44217</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>44224</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>44244</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>44245</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>44247</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>44248</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>44251</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>44252</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>44253</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>44254</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>44255</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>44256</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>44230</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>44258</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE415A2-C54E-4B98-BB48-6BA395A1F382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237670DE-EF2A-4CEF-9FD9-3D93FD55DE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Studenliste von Alexander Schmid</t>
   </si>
@@ -61,6 +61,11 @@
   </si>
   <si>
     <t>Explizite Definition des Models auf JS-Seite, refactoring von redpitaya_stub.ts</t>
+  </si>
+  <si>
+    <t>Bug gefixt, bei dem die Standard-Werte der Decoder Options nicht initial an den RP geschickt werden.
+Update des Klassendesigns -&gt; Bei den Acquirer-Optionen müssen Gain und Probe Attenuation pro Channel konfiguriert werden.
+Weitere Implementierung des Acquirer-Options View.</t>
   </si>
 </sst>
 </file>
@@ -117,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +141,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +462,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +532,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44133</v>
+        <v>43918</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -537,13 +545,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44140</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +566,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,7 +575,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,7 +584,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,7 +593,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,7 +602,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,7 +611,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,7 +620,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,7 +629,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,7 +638,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +647,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +656,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,7 +665,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,7 +674,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +683,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +692,7 @@
       </c>
       <c r="C22">
         <f>C20+B22</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,7 +701,7 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C38" si="1">C22+B23</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +710,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +719,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +728,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +737,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +746,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,7 +755,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +764,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,7 +773,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +782,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +791,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +800,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +809,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +818,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,7 +827,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,7 +836,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\PRJ\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237670DE-EF2A-4CEF-9FD9-3D93FD55DE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D612427-5DA1-4F6B-8D55-03DF6E980F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Studenliste von Alexander Schmid</t>
   </si>
@@ -66,6 +66,11 @@
     <t>Bug gefixt, bei dem die Standard-Werte der Decoder Options nicht initial an den RP geschickt werden.
 Update des Klassendesigns -&gt; Bei den Acquirer-Optionen müssen Gain und Probe Attenuation pro Channel konfiguriert werden.
 Weitere Implementierung des Acquirer-Options View.</t>
+  </si>
+  <si>
+    <t>Weitere Implementierung des Acquirer-Options View.
+Ansicht ist jetzt voll funktionsfähig.
+UX kann noch verbessert werden indem maxSampleCount miteinbezogen wird und sampleCount sowie sampleTime als Slider+Textfeld anstatt nur Textfeld implementiert wird.</t>
   </si>
 </sst>
 </file>
@@ -136,14 +141,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +467,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,22 +479,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -532,7 +537,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43918</v>
+        <v>44283</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -547,7 +552,7 @@
     </row>
     <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>44140</v>
+        <v>44291</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -556,17 +561,23 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44145</v>
+        <v>44334</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -575,7 +586,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,7 +595,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,7 +604,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,7 +613,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,7 +622,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,7 +631,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,7 +640,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +649,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +658,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,7 +667,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,7 +676,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,7 +685,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,7 +694,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +703,7 @@
       </c>
       <c r="C22">
         <f>C20+B22</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +712,7 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C38" si="1">C22+B23</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,7 +721,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +730,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,7 +739,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +748,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,7 +757,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,7 +766,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,7 +775,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +784,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +793,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +802,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +811,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,7 +820,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +829,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +838,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,7 +847,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Formattierung der Sampleraten mit Einheiten via mathjs hinzugefügt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging eines Konflikts zwischen jQuery und jQueryUI</t>
   </si>
 </sst>
 </file>
@@ -227,10 +230,10 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -402,11 +405,17 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
-        <v>44159</v>
+        <v>44337</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">C12+B13</f>
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +424,7 @@
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">C13+B14</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,7 +433,7 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">C14+B15</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +442,7 @@
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">C15+B16</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +451,7 @@
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">C16+B17</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,7 +460,7 @@
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">C17+B18</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +469,7 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">C18+B19</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +478,7 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +487,7 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +496,7 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">C20+B22</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +505,7 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +514,7 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +523,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +532,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +541,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +550,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +559,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +568,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +577,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +586,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +595,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +604,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +613,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +622,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +631,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +640,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +650,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Debugging eines Konflikts zwischen jQuery und jQueryUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRDChosenOptions Signal zu einem Parameter refactored</t>
   </si>
 </sst>
 </file>
@@ -230,10 +233,10 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -420,11 +423,17 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
-        <v>44161</v>
+        <v>43979</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">C13+B14</f>
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +442,7 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">C14+B15</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +451,7 @@
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">C15+B16</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,7 +460,7 @@
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">C16+B17</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +469,7 @@
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">C17+B18</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +478,7 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">C18+B19</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +487,7 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +496,7 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +505,7 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">C20+B22</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +514,7 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +523,7 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +532,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +541,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +550,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +559,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +568,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +577,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +586,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +595,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +604,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +613,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +622,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +631,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +640,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +649,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t xml:space="preserve">SRDChosenOptions Signal zu einem Parameter refactored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internes Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging des HTTP-Servers im RedpitayaStub (Resultat: HTTP-Server wurde entfernt, nur WebSocket bleibt=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung AcquirerOptions: Einheitenlogik ist vollständig, Inputvalidierung noch zu tun</t>
   </si>
 </sst>
 </file>
@@ -233,10 +242,10 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -423,7 +432,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
-        <v>43979</v>
+        <v>44344</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
@@ -438,29 +447,47 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
-        <v>44165</v>
+        <v>44351</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">C14+B15</f>
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
-        <v>44168</v>
+        <v>44351</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">C15+B16</f>
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>44173</v>
+        <v>44353</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">C16+B17</f>
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +496,7 @@
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">C17+B18</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +505,7 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">C18+B19</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +514,7 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +523,7 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +532,7 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">C20+B22</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +541,7 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +550,7 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +559,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +568,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +577,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +586,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +595,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +604,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +613,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +622,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +631,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +640,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +649,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +658,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +667,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +676,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung AcquirerOptions: Einheitenlogik ist vollständig, Inputvalidierung noch zu tun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung der Inputvalidierung der AcquirerOptions</t>
   </si>
 </sst>
 </file>
@@ -242,10 +245,10 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -492,11 +495,17 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>44177</v>
+        <v>44357</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">C17+B18</f>
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +514,7 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">C18+B19</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +523,7 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +532,7 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +541,7 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">C20+B22</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +550,7 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +559,7 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +568,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +577,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +586,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +595,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +604,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +613,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +622,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +631,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +640,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +649,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +658,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +667,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +676,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,7 +685,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung der Inputvalidierung der AcquirerOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung vom Senden der ChannelMap an den RedPitaya</t>
   </si>
 </sst>
 </file>
@@ -245,10 +248,10 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -510,11 +513,17 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>44182</v>
+        <v>44373</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">C18+B19</f>
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +532,7 @@
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +541,7 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +550,7 @@
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">C20+B22</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +559,7 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +568,7 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +577,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +586,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +595,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +604,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +613,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +622,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +631,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +640,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +649,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +658,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +667,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +676,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,7 +685,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +694,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung vom Senden der ChannelMap an den RedPitaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung des Start Analyzing-Buttons, inkl. Progress Spinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Implementierung des Progress Spinners</t>
   </si>
 </sst>
 </file>
@@ -247,11 +253,11 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -528,29 +534,47 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
-        <v>44183</v>
+        <v>44412</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">C19+B20</f>
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>44187</v>
+        <v>44048</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C20+B21</f>
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>44198</v>
+        <v>44414</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">C20+B22</f>
-        <v>57</v>
+        <f aca="false">C21+B22</f>
+        <v>70</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +583,7 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +592,7 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +601,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +610,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +619,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +628,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +637,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +646,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +655,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +664,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +673,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,7 +682,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +691,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,7 +700,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +709,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,7 +718,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Weitere Implementierung des Progress Spinners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugfix =&gt; das Channel-Mapping und die UI nutzen nun die Namen der Acquirer-Channel, die vom RedPitaya gesendet werden.</t>
   </si>
 </sst>
 </file>
@@ -253,11 +256,11 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -579,11 +582,17 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>44210</v>
+        <v>44420</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">C22+B23</f>
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,7 +601,7 @@
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,7 +610,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,7 +619,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +628,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +637,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +646,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,7 +655,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +664,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +673,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +682,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +691,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +700,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,7 +709,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +718,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +727,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bugfix =&gt; das Channel-Mapping und die UI nutzen nun die Namen der Acquirer-Channel, die vom RedPitaya gesendet werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung der Measurement-State-Logik im RedpitayaStub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertigstellen des Progress Spinners im Start-Analyzing Button</t>
   </si>
 </sst>
 </file>
@@ -257,10 +263,10 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -597,20 +603,32 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>44215</v>
+        <v>44422</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">C23+B24</f>
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>44217</v>
+        <v>44422</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">C24+B25</f>
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +637,7 @@
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +646,7 @@
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +655,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,7 +664,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +673,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +682,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +691,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +700,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +709,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,7 +718,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +727,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +736,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +745,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fertigstellen des Progress Spinners im Start-Analyzing Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung des sendens von Beispieldaten des MeasuredData-Signals im RepitayaStub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung des Empfangens der MeasuredData in der UI und Anzeige via der uPlot-Chart</t>
   </si>
 </sst>
 </file>
@@ -263,10 +269,10 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -633,20 +639,32 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>44224</v>
+        <v>44429</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">C25+B26</f>
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
-        <v>44244</v>
+        <v>44430</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">C26+B27</f>
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +673,7 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +682,7 @@
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +691,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +700,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +709,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,7 +718,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +727,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +736,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +745,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,7 +754,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,7 +763,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Implementierung des Empfangens der MeasuredData in der UI und Anzeige via der uPlot-Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Implementierung der Anzeige der MeasuredData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugfixing der Anzeige der MeasuredData</t>
   </si>
 </sst>
 </file>
@@ -121,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -251,33 +257,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,20 +676,32 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
-        <v>44245</v>
+        <v>44443</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">C27+B28</f>
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
-        <v>44247</v>
+        <v>44444</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">C28+B29</f>
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +710,7 @@
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,7 +719,7 @@
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +728,7 @@
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +737,7 @@
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,7 +746,7 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,7 +755,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,7 +764,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,7 +773,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,7 +782,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +792,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
+++ b/stundenlisten/Stundenliste-AlexanderSchmid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">Studenliste von Alexander Schmid</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t xml:space="preserve">Bugfixing der Anzeige der MeasuredData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung der Anzeige der DecoderAnnotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Implementierung der Anzeige der DecoderAnnotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufnahme Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisierung der Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfertigung der Präsentationsfolien</t>
   </si>
 </sst>
 </file>
@@ -127,9 +142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -257,34 +272,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,47 +720,77 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
-        <v>44248</v>
+        <v>44450</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">C29+B30</f>
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
-        <v>44251</v>
+        <v>44451</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">C30+B31</f>
-        <v>118</v>
+        <v>130</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
-        <v>44252</v>
+        <v>44452</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">C31+B32</f>
-        <v>118</v>
+        <v>132</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
-        <v>44253</v>
+        <v>44457</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">C32+B33</f>
-        <v>118</v>
+        <v>138</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
-        <v>44254</v>
+        <v>44459</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">C33+B34</f>
-        <v>118</v>
+        <v>141</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +799,7 @@
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">C34+B35</f>
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,7 +808,7 @@
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">C35+B36</f>
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,7 +817,7 @@
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">C36+B37</f>
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +826,7 @@
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">C37+B38</f>
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +836,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
